--- a/java_webs/structural_diagram/board 전개도.xlsx
+++ b/java_webs/structural_diagram/board 전개도.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcci\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcci\Desktop\자바웹 전개도\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="flow" sheetId="1" r:id="rId1"/>
+    <sheet name="code flow" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="170">
   <si>
     <t>User</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -218,22 +220,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>detail(int idx)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete(int idx)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>write(String name, String title, String content)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>modify(int idx, String title, String content)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>doPost(request, response)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -242,11 +228,471 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>delete()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>write()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>response.sendRedirect("guest?command=L");</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DispatcherServlet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>list.jsp</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>4-1</t>
+    <t>RequestDispatcher rd = null;</t>
+  </si>
+  <si>
+    <t>String cmd = null;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String status = "";  // 글목록에서 제목 클릭, 글상세에서 수정화면이동 클릭 </t>
+  </si>
+  <si>
+    <t>if (request.getParameter("command") != null) {</t>
+  </si>
+  <si>
+    <t>cmd = request.getParameter("command");</t>
+  </si>
+  <si>
+    <t>switch (cmd) {</t>
+  </si>
+  <si>
+    <t>case "L": // 글목록</t>
+  </si>
+  <si>
+    <t>ListController list = new ListController();</t>
+  </si>
+  <si>
+    <t>List&lt;Guest&gt; glist = list.list();</t>
+  </si>
+  <si>
+    <t>rd = request.getRequestDispatcher("list.jsp");</t>
+  </si>
+  <si>
+    <t>request.setAttribute("glist", glist);</t>
+  </si>
+  <si>
+    <t>rd.forward(request, response);</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>case "W": // 글쓰기</t>
+  </si>
+  <si>
+    <t>Guest guest = new Guest();</t>
+  </si>
+  <si>
+    <t>guest.setName(request.getParameter("name"));</t>
+  </si>
+  <si>
+    <t>guest.setTitle(request.getParameter("title"));</t>
+  </si>
+  <si>
+    <t>guest.setContent(request.getParameter("content"));</t>
+  </si>
+  <si>
+    <t>InsertController insert = new InsertController();</t>
+  </si>
+  <si>
+    <t>insert.insert(guest);</t>
+  </si>
+  <si>
+    <t>rd = request.getRequestDispatcher("main.jsp");</t>
+  </si>
+  <si>
+    <t>case "D": // 글상세</t>
+  </si>
+  <si>
+    <t>status = request.getParameter("status");</t>
+  </si>
+  <si>
+    <t>int idx =  Integer.parseInt(request.getParameter("idx"));</t>
+  </si>
+  <si>
+    <t>DetailController detail = new DetailController();</t>
+  </si>
+  <si>
+    <t>Guest guest1 =detail.detail(idx);</t>
+  </si>
+  <si>
+    <t>request.setAttribute("guest1", guest1);</t>
+  </si>
+  <si>
+    <t>if(status.equals("detail")) {</t>
+  </si>
+  <si>
+    <t>rd = request.getRequestDispatcher("detail.jsp");</t>
+  </si>
+  <si>
+    <t>}else {</t>
+  </si>
+  <si>
+    <t>rd = request.getRequestDispatcher("modify.jsp");</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>case "U": // 글수정</t>
+  </si>
+  <si>
+    <t>Guest guest2 = new Guest();</t>
+  </si>
+  <si>
+    <t>guest2.setIdx(Integer.parseInt(request.getParameter("idx")));</t>
+  </si>
+  <si>
+    <t>guest2.setName(request.getParameter("name"));</t>
+  </si>
+  <si>
+    <t>guest2.setTitle(request.getParameter("title"));</t>
+  </si>
+  <si>
+    <t>guest2.setContent(request.getParameter("content"));</t>
+  </si>
+  <si>
+    <t>UpdateController update = new UpdateController();</t>
+  </si>
+  <si>
+    <t>update.update(guest2);</t>
+  </si>
+  <si>
+    <t>case "DEL": // 글삭제</t>
+  </si>
+  <si>
+    <t>int idx2 =  Integer.parseInt(request.getParameter("idx"));</t>
+  </si>
+  <si>
+    <t>DeleteController delete = new DeleteController();</t>
+  </si>
+  <si>
+    <t>delete.delete(idx2);</t>
+  </si>
+  <si>
+    <t>} // switch (cmd) END</t>
+  </si>
+  <si>
+    <t>} // if () END</t>
+  </si>
+  <si>
+    <t>PRJ: guest_complete</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.xml =&gt; &lt;welcome-file&gt;main.jsp&lt;/welcone-file&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.jsp를 응답 =&gt; &lt;% response.sendRedirect("guest?command=L"); %&gt; =&gt; 요청</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DispatcherServlet =&gt; URL Pattern (/guest)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 실행 =&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListController</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=== ArrayList&lt;Guest&gt; glist = new ArrayList&lt;Guest&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    public List&lt;Guest&gt; list() {};</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;==응답: list.jsp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.jsp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   List&lt;Guest&gt; glist = (List&lt;Guest&gt;)request.getAttribute("glist"); </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">글쓰기: &lt;input type="button" value="글쓰기"  onclick="goURL()" &gt; </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>function goURL(){ document.location="write.jsp"; }</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;== 응답(Tomcat): write.jsp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;form action="guest"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;input type="text" name="name" &gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;input type="text" name="title" &gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;textarea rows="10" cols="50" name="content"&gt;&lt;/textarea&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;input type="hidden" name="command" value="W" &gt;</t>
+  </si>
+  <si>
+    <t>&lt;/form&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guest ==&gt;  public void inset(Guest guest)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;== 응답 main.jsp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목클릭 요청 ==&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DetailControlle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsertController</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>private void hit(int idx) {}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=Guest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx =&gt; public Guest detail(int idx) {</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>this.hit();</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;== 응답: detail.jsp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;% Guest guest = (Guest)request.getAttribute("guest1"); %&gt;</t>
+  </si>
+  <si>
+    <t>detail.jsp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정화면이동버튼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록이동버튼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.jsp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 ==&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;== 응답: modify.jsp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify.jsp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;% Guest guest = (Guest)request.getAttribute("guest1"); %&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;input type="text" name="name" value=&lt;%= guest.getName() %&gt; readOnly&gt;&lt;br&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;input type="text" name="title" value=&lt;%= guest.getTitle() %&gt; &gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;textarea rows="10" cols="50" name="content"&gt;&lt;%= guest.getTitle() %&gt;&lt;/textarea&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;input type="hidden" name="command" value="U" &gt;</t>
+  </si>
+  <si>
+    <t>&lt;input type="hidden" name="idx" value=&lt;%= guest.getIdx() %&gt; &gt;</t>
+  </si>
+  <si>
+    <t>요청 ==&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guest2 =&gt; public void update(Guest guest) {}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateController</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;== 응답: main.jsp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>글삭제버튼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx2 =&gt; public void delete(int idx2){}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;== 응답: main.jsp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메서드 호출</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomcat (요청에 대한 응답 처리)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web Browser: 요청하고 응답된 결과 출력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청에 따라 지정된 컨트롤러에게 데이터 전달 및 수행할 내용 위임하고 결과 데이터 전달 받기  응답 페이지를 서버에 전달</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">제목 클릭: 요청 D  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수정화면 이동 버튼 클릭: </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">수정저장버튼 클릭: guest?name=~&amp;title=~&amp;content=~&amp;command=U&amp;idx=~ </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 삭제버튼 클릭: guest?command=DEL&amp;idx=&lt;%= guest.getIdx() %&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guest?command=D&amp;idx=&lt;%= guest.getIdx() %&gt;&amp;status=modify</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송버튼 클릭: guest&gt;name=&amp;title~&amp;content=~command=W 요청 ===&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>글쓰기 버튼 클릭: wirte.jsp 요청 ==&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목: &lt;a href="guest?command=D&amp;status=detail&amp;idx=&lt;%= guest.getIdx() %&gt;" &gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteController</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDBC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +700,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,8 +768,98 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,8 +912,35 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -437,8 +1000,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,8 +1139,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -543,10 +1240,139 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="9" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="15" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="15" xfId="4" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="4" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
+    <cellStyle name="메모" xfId="6" builtinId="10"/>
+    <cellStyle name="입력" xfId="4" builtinId="20"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
+    <cellStyle name="출력" xfId="5" builtinId="21"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
@@ -677,6 +1503,153 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>667206</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>4566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="오른쪽으로 구부러진 화살표 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="12530466">
+          <a:off x="9511849" y="2045637"/>
+          <a:ext cx="475794" cy="1614684"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>351952</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180638</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3780952" cy="2695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>599405</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>37709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="2990850"/>
+          <a:ext cx="5361905" cy="3123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -947,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AF53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD31" sqref="AD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1108,7 +2081,7 @@
       <c r="F8" s="1"/>
       <c r="H8" s="4"/>
       <c r="I8" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5" t="s">
@@ -1182,7 +2155,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -1450,7 +2423,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1490,7 +2463,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1508,7 +2481,7 @@
       <c r="O19" s="19"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
@@ -1526,10 +2499,12 @@
       <c r="AF19" s="18"/>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="1"/>
+      <c r="A20" s="28">
+        <v>5</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1561,7 +2536,7 @@
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1595,7 +2570,7 @@
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="29"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1627,7 +2602,7 @@
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1661,7 +2636,7 @@
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1693,7 +2668,7 @@
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="29"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1770,7 +2745,7 @@
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
@@ -2106,7 +3081,7 @@
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
@@ -2251,4 +3226,2187 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AL25" sqref="AL25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="N3" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="N4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="32"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="34"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="34"/>
+    </row>
+    <row r="8" spans="1:38" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="34"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B9" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="62"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="54"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="34"/>
+      <c r="Y9" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL9" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B10" s="63"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="64"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="56"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="34"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B11" s="63"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="64"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="56"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="34"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B12" s="63"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="64"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="56"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="34"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B13" s="63"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="64"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="56"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="34"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B14" s="63"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="64"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="56"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="34"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B15" s="63"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="64"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="56"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="34"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B16" s="63"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="64"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="50"/>
+      <c r="L16" s="56"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="34"/>
+      <c r="Y16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B17" s="63"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="64"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="56"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="34"/>
+      <c r="Y17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B18" s="63"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="64"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="56"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="34"/>
+      <c r="Y18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B19" s="63"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="64"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="56"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="34"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B20" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="64"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="56"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="34"/>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B21" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="64"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="56"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="34"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B22" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="64"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="56"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="34"/>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B23" s="63"/>
+      <c r="C23" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="64"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="56"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="34"/>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B24" s="63"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="64"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="56"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="34"/>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B25" s="63"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="64"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="56"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="34"/>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B26" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="64"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="56"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="34"/>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B27" s="63"/>
+      <c r="C27" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="64"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="56"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="34"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B28" s="63"/>
+      <c r="C28" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="64"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="56"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="34"/>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B29" s="63"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="64"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="56"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="34"/>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B30" s="63"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="64"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="56"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="34"/>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B31" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="64"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="56"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="34"/>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B32" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="64"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="56"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="34"/>
+      <c r="Y32" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B33" s="63"/>
+      <c r="C33" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="64"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="56"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="34"/>
+      <c r="Y33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B34" s="63"/>
+      <c r="C34" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="64"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="56"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="34"/>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B35" s="63"/>
+      <c r="C35" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="64"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="56"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="34"/>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B36" s="63"/>
+      <c r="C36" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="56"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="34"/>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B37" s="63"/>
+      <c r="C37" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="64"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="56"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="34"/>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B38" s="63"/>
+      <c r="C38" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="64"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="56"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="34"/>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B39" s="63"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="64"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="56"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="34"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B40" s="63"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="64"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="56"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q40" s="39"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="34"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B41" s="63"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="64"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="56"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="34"/>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B42" s="63"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="64"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="56"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="34"/>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B43" s="63"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="64"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="56"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="34"/>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B44" s="63"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="64"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="56"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="34"/>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B45" s="63"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="64"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="56"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="34"/>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B46" s="63"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="64"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="56"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="34"/>
+      <c r="Y46" s="49" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B47" s="63"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="64"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="56"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="34"/>
+      <c r="Y47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B48" s="63"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="64"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="56"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="34"/>
+      <c r="Z48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B49" s="63"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="64"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="56"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="34"/>
+      <c r="Y49" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B50" s="63"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="64"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="56"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="34"/>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B51" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="64"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="56"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="34"/>
+      <c r="Z51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B52" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="64"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="56"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="34"/>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B53" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="64"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="50"/>
+      <c r="K53" s="50"/>
+      <c r="L53" s="56"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="34"/>
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B54" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="64"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="50"/>
+      <c r="L54" s="56"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="34"/>
+    </row>
+    <row r="55" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B55" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="64"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="J55" s="50"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="56"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="34"/>
+    </row>
+    <row r="56" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B56" s="63"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="64"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="J56" s="50"/>
+      <c r="K56" s="50"/>
+      <c r="L56" s="56"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="34"/>
+    </row>
+    <row r="57" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B57" s="63"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="64"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="50"/>
+      <c r="K57" s="50"/>
+      <c r="L57" s="56"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="34"/>
+    </row>
+    <row r="58" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B58" s="63"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="64"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="50"/>
+      <c r="L58" s="56"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="40"/>
+      <c r="S58" s="40"/>
+      <c r="T58" s="40"/>
+      <c r="U58" s="40"/>
+      <c r="V58" s="40"/>
+      <c r="W58" s="34"/>
+    </row>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B59" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="64"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="50"/>
+      <c r="L59" s="56"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="42"/>
+      <c r="T59" s="42"/>
+      <c r="U59" s="42"/>
+      <c r="V59" s="42"/>
+      <c r="W59" s="34"/>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B60" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="64"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="56"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="R60" s="42"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="42"/>
+      <c r="W60" s="34"/>
+    </row>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B61" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="64"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="50"/>
+      <c r="L61" s="56"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="R61" s="42"/>
+      <c r="S61" s="42"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="42"/>
+      <c r="V61" s="42"/>
+      <c r="W61" s="34"/>
+    </row>
+    <row r="62" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B62" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="64"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="50"/>
+      <c r="L62" s="56"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="42"/>
+      <c r="Q62" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="R62" s="42"/>
+      <c r="S62" s="42"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="42"/>
+      <c r="V62" s="42"/>
+      <c r="W62" s="34"/>
+    </row>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B63" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="64"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="56"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="42"/>
+      <c r="Q63" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="R63" s="42"/>
+      <c r="S63" s="42"/>
+      <c r="T63" s="42"/>
+      <c r="U63" s="42"/>
+      <c r="V63" s="42"/>
+      <c r="W63" s="34"/>
+    </row>
+    <row r="64" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B64" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="64"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="56"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="42"/>
+      <c r="Q64" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="R64" s="42"/>
+      <c r="S64" s="42"/>
+      <c r="T64" s="42"/>
+      <c r="U64" s="42"/>
+      <c r="V64" s="42"/>
+      <c r="W64" s="34"/>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B65" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="64"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="56"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="42"/>
+      <c r="Q65" s="42"/>
+      <c r="R65" s="42"/>
+      <c r="S65" s="42"/>
+      <c r="T65" s="42"/>
+      <c r="U65" s="42"/>
+      <c r="V65" s="42"/>
+      <c r="W65" s="34"/>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B66" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="64"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="56"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="42"/>
+      <c r="Q66" s="42"/>
+      <c r="R66" s="42"/>
+      <c r="S66" s="42"/>
+      <c r="T66" s="42"/>
+      <c r="U66" s="42"/>
+      <c r="V66" s="42"/>
+      <c r="W66" s="34"/>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B67" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="60"/>
+      <c r="F67" s="64"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="K67" s="50"/>
+      <c r="L67" s="56"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="42"/>
+      <c r="Q67" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R67" s="42"/>
+      <c r="S67" s="42"/>
+      <c r="T67" s="42"/>
+      <c r="U67" s="42"/>
+      <c r="V67" s="42"/>
+      <c r="W67" s="34"/>
+      <c r="Y67" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B68" s="63"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="64"/>
+      <c r="H68" s="55"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="56"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="42"/>
+      <c r="Q68" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="R68" s="42"/>
+      <c r="S68" s="42"/>
+      <c r="T68" s="42"/>
+      <c r="U68" s="42"/>
+      <c r="V68" s="42"/>
+      <c r="W68" s="34"/>
+      <c r="Y68" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B69" s="63"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="64"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
+      <c r="L69" s="56"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="42"/>
+      <c r="Q69" s="42"/>
+      <c r="R69" s="42"/>
+      <c r="S69" s="42"/>
+      <c r="T69" s="42"/>
+      <c r="U69" s="42"/>
+      <c r="V69" s="42"/>
+      <c r="W69" s="34"/>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B70" s="63"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="64"/>
+      <c r="H70" s="55"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="50"/>
+      <c r="L70" s="56"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="42"/>
+      <c r="Q70" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="R70" s="42"/>
+      <c r="S70" s="42"/>
+      <c r="T70" s="42"/>
+      <c r="U70" s="42"/>
+      <c r="V70" s="42"/>
+      <c r="W70" s="34"/>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B71" s="63"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="64"/>
+      <c r="H71" s="55"/>
+      <c r="I71" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="J71" s="50"/>
+      <c r="K71" s="50"/>
+      <c r="L71" s="56"/>
+      <c r="N71" s="33"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="42"/>
+      <c r="Q71" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="R71" s="42"/>
+      <c r="S71" s="42"/>
+      <c r="T71" s="42"/>
+      <c r="U71" s="42"/>
+      <c r="V71" s="42"/>
+      <c r="W71" s="34"/>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B72" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="60"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="64"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="56"/>
+      <c r="N72" s="33"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="42"/>
+      <c r="Q72" s="42"/>
+      <c r="R72" s="42"/>
+      <c r="S72" s="42"/>
+      <c r="T72" s="42"/>
+      <c r="U72" s="42"/>
+      <c r="V72" s="42"/>
+      <c r="W72" s="34"/>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B73" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="60"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="64"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="J73" s="50"/>
+      <c r="K73" s="50"/>
+      <c r="L73" s="56"/>
+      <c r="N73" s="33"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="42"/>
+      <c r="Q73" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="R73" s="42"/>
+      <c r="S73" s="42"/>
+      <c r="T73" s="42"/>
+      <c r="U73" s="42"/>
+      <c r="V73" s="42"/>
+      <c r="W73" s="34"/>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B74" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="60"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="64"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="50"/>
+      <c r="K74" s="50"/>
+      <c r="L74" s="56"/>
+      <c r="N74" s="33"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="34"/>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B75" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" s="60"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="64"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="56"/>
+      <c r="N75" s="33"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q75" s="43"/>
+      <c r="R75" s="44"/>
+      <c r="S75" s="44"/>
+      <c r="T75" s="44"/>
+      <c r="U75" s="44"/>
+      <c r="V75" s="44"/>
+      <c r="W75" s="34"/>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B76" s="63"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="64"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="50"/>
+      <c r="K76" s="50"/>
+      <c r="L76" s="56"/>
+      <c r="N76" s="33"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="44"/>
+      <c r="Q76" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="R76" s="44"/>
+      <c r="S76" s="44"/>
+      <c r="T76" s="44"/>
+      <c r="U76" s="44"/>
+      <c r="V76" s="44"/>
+      <c r="W76" s="34"/>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B77" s="63"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="64"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="50"/>
+      <c r="J77" s="50"/>
+      <c r="K77" s="50"/>
+      <c r="L77" s="56"/>
+      <c r="N77" s="33"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="44"/>
+      <c r="R77" s="44"/>
+      <c r="S77" s="44"/>
+      <c r="T77" s="44"/>
+      <c r="U77" s="44"/>
+      <c r="V77" s="44"/>
+      <c r="W77" s="34"/>
+    </row>
+    <row r="78" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B78" s="63"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="64"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="56"/>
+      <c r="N78" s="33"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="44"/>
+      <c r="Q78" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="R78" s="44"/>
+      <c r="S78" s="44"/>
+      <c r="T78" s="44"/>
+      <c r="U78" s="44"/>
+      <c r="V78" s="44"/>
+      <c r="W78" s="34"/>
+      <c r="Y78" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B79" s="63"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="64"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="50"/>
+      <c r="L79" s="56"/>
+      <c r="N79" s="33"/>
+      <c r="O79" s="5"/>
+      <c r="P79" s="44"/>
+      <c r="Q79" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="R79" s="44"/>
+      <c r="S79" s="44"/>
+      <c r="T79" s="44"/>
+      <c r="U79" s="44"/>
+      <c r="V79" s="44"/>
+      <c r="W79" s="34"/>
+      <c r="Y79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B80" s="63"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="64"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="50"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="50"/>
+      <c r="L80" s="56"/>
+      <c r="N80" s="33"/>
+      <c r="O80" s="5"/>
+      <c r="P80" s="44"/>
+      <c r="Q80" s="44"/>
+      <c r="R80" s="44"/>
+      <c r="S80" s="44"/>
+      <c r="T80" s="44"/>
+      <c r="U80" s="44"/>
+      <c r="V80" s="44"/>
+      <c r="W80" s="34"/>
+    </row>
+    <row r="81" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B81" s="63"/>
+      <c r="C81" s="60"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="64"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="50"/>
+      <c r="L81" s="56"/>
+      <c r="N81" s="33"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="44"/>
+      <c r="Q81" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="R81" s="44"/>
+      <c r="S81" s="44"/>
+      <c r="T81" s="44"/>
+      <c r="U81" s="44"/>
+      <c r="V81" s="44"/>
+      <c r="W81" s="34"/>
+    </row>
+    <row r="82" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B82" s="63"/>
+      <c r="C82" s="60"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="64"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="J82" s="50"/>
+      <c r="K82" s="50"/>
+      <c r="L82" s="56"/>
+      <c r="N82" s="33"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="44"/>
+      <c r="Q82" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="R82" s="44"/>
+      <c r="S82" s="44"/>
+      <c r="T82" s="44"/>
+      <c r="U82" s="44"/>
+      <c r="V82" s="44"/>
+      <c r="W82" s="34"/>
+    </row>
+    <row r="83" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B83" s="63"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="64"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="50"/>
+      <c r="J83" s="50"/>
+      <c r="K83" s="50"/>
+      <c r="L83" s="56"/>
+      <c r="N83" s="33"/>
+      <c r="O83" s="5"/>
+      <c r="P83" s="44"/>
+      <c r="Q83" s="44"/>
+      <c r="R83" s="44"/>
+      <c r="S83" s="44"/>
+      <c r="T83" s="44"/>
+      <c r="U83" s="44"/>
+      <c r="V83" s="44"/>
+      <c r="W83" s="34"/>
+    </row>
+    <row r="84" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="65"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="67"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="58"/>
+      <c r="J84" s="58"/>
+      <c r="K84" s="58"/>
+      <c r="L84" s="59"/>
+      <c r="N84" s="33"/>
+      <c r="O84" s="5"/>
+      <c r="P84" s="44"/>
+      <c r="Q84" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="R84" s="44"/>
+      <c r="S84" s="44"/>
+      <c r="T84" s="44"/>
+      <c r="U84" s="44"/>
+      <c r="V84" s="44"/>
+      <c r="W84" s="34"/>
+    </row>
+    <row r="85" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="N85" s="33"/>
+      <c r="O85" s="5"/>
+      <c r="P85" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q85" s="48"/>
+      <c r="R85" s="35"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="5"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+      <c r="W85" s="34"/>
+    </row>
+    <row r="86" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="34"/>
+    </row>
+    <row r="87" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="N87" s="33"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
+      <c r="U87" s="5"/>
+      <c r="V87" s="5"/>
+      <c r="W87" s="34"/>
+    </row>
+    <row r="88" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="N88" s="33"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="34"/>
+    </row>
+    <row r="89" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="N89" s="33"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+      <c r="W89" s="34"/>
+    </row>
+    <row r="90" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="N90" s="33"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="34"/>
+    </row>
+    <row r="91" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="N91" s="33"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="34"/>
+    </row>
+    <row r="92" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="N92" s="33"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="34"/>
+    </row>
+    <row r="93" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="N93" s="45"/>
+      <c r="O93" s="46"/>
+      <c r="P93" s="46"/>
+      <c r="Q93" s="46"/>
+      <c r="R93" s="46"/>
+      <c r="S93" s="46"/>
+      <c r="T93" s="46"/>
+      <c r="U93" s="46"/>
+      <c r="V93" s="46"/>
+      <c r="W93" s="47"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>